--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y348"/>
+  <dimension ref="A1:Y349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="R347" s="2" t="inlineStr"/>
     </row>
-    <row r="348">
+    <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
           <t>A 40301-2023</t>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22166,6 +22166,68 @@
         <v>0</v>
       </c>
       <c r="R348" s="2" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>A 42976-2023</t>
+        </is>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C349" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>SKINNSKATTEBERG</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>2</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 46602-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 46602-2019.xlsx", "A 46602-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 46602-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 46602-2019.png", "A 46602-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 46602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 46602-2019.docx", "A 46602-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 46602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 46602-2019.docx", "A 46602-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 46602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 46602-2019.docx", "A 46602-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 46602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 46602-2019.docx", "A 46602-2019")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,27 +722,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51340-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51340-2019.xlsx", "A 51340-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51340-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51340-2019.png", "A 51340-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51340-2019.docx", "A 51340-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51340-2019.docx", "A 51340-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51340-2019.docx", "A 51340-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51340-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51340-2019.docx", "A 51340-2019")</f>
         <v/>
       </c>
     </row>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 24089-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 24089-2023.xlsx", "A 24089-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 24089-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 24089-2023.png", "A 24089-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 24089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 24089-2023.docx", "A 24089-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 24089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 24089-2023.docx", "A 24089-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 24089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 24089-2023.docx", "A 24089-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 24089-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 24089-2023.docx", "A 24089-2023")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,27 +905,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 46592-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 46592-2019.xlsx", "A 46592-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 46592-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 46592-2019.png", "A 46592-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 46592-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 46592-2019.docx", "A 46592-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 46592-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 46592-2019.docx", "A 46592-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 46592-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 46592-2019.docx", "A 46592-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 46592-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 46592-2019.docx", "A 46592-2019")</f>
         <v/>
       </c>
     </row>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 56823-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 56823-2019.xlsx", "A 56823-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 56823-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 56823-2019.png", "A 56823-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 56823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 56823-2019.docx", "A 56823-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 56823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 56823-2019.docx", "A 56823-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 56823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 56823-2019.docx", "A 56823-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 56823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 56823-2019.docx", "A 56823-2019")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1087,27 +1087,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 50960-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 50960-2020.xlsx", "A 50960-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 50960-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 50960-2020.png", "A 50960-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 50960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 50960-2020.docx", "A 50960-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 50960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 50960-2020.docx", "A 50960-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 50960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 50960-2020.docx", "A 50960-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 50960-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 50960-2020.docx", "A 50960-2020")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1173,27 +1173,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 65300-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 65300-2021.xlsx", "A 65300-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 65300-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 65300-2021.png", "A 65300-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 65300-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 65300-2021.docx", "A 65300-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 65300-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 65300-2021.docx", "A 65300-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 65300-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 65300-2021.docx", "A 65300-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 65300-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 65300-2021.docx", "A 65300-2021")</f>
         <v/>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,27 +1264,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 6182-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 6182-2023.xlsx", "A 6182-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 6182-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 6182-2023.png", "A 6182-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 6182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 6182-2023.docx", "A 6182-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 6182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 6182-2023.docx", "A 6182-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 6182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 6182-2023.docx", "A 6182-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 6182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 6182-2023.docx", "A 6182-2023")</f>
         <v/>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,27 +1354,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 64229-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 64229-2018.xlsx", "A 64229-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 64229-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 64229-2018.png", "A 64229-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 64229-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 64229-2018.docx", "A 64229-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 64229-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 64229-2018.docx", "A 64229-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 64229-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 64229-2018.docx", "A 64229-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 64229-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 64229-2018.docx", "A 64229-2018")</f>
         <v/>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,27 +1444,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 27670-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 27670-2019.xlsx", "A 27670-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 27670-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 27670-2019.png", "A 27670-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 27670-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 27670-2019.docx", "A 27670-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 27670-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 27670-2019.docx", "A 27670-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 27670-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 27670-2019.docx", "A 27670-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 27670-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 27670-2019.docx", "A 27670-2019")</f>
         <v/>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,27 +1534,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51399-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51399-2019.xlsx", "A 51399-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51399-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51399-2019.png", "A 51399-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51399-2019.docx", "A 51399-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51399-2019.docx", "A 51399-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51399-2019.docx", "A 51399-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51399-2019.docx", "A 51399-2019")</f>
         <v/>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,27 +1624,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51400-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51400-2019.xlsx", "A 51400-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51400-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51400-2019.png", "A 51400-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51400-2019.docx", "A 51400-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51400-2019.docx", "A 51400-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51400-2019.docx", "A 51400-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51400-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51400-2019.docx", "A 51400-2019")</f>
         <v/>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,27 +1714,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51396-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 51396-2019.xlsx", "A 51396-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51396-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 51396-2019.png", "A 51396-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51396-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 51396-2019.docx", "A 51396-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51396-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 51396-2019.docx", "A 51396-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51396-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 51396-2019.docx", "A 51396-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51396-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 51396-2019.docx", "A 51396-2019")</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,27 +1804,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 56822-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 56822-2019.xlsx", "A 56822-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 56822-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 56822-2019.png", "A 56822-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 56822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 56822-2019.docx", "A 56822-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 56822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 56822-2019.docx", "A 56822-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 56822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 56822-2019.docx", "A 56822-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 56822-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 56822-2019.docx", "A 56822-2019")</f>
         <v/>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,27 +1894,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 59346-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 59346-2019.xlsx", "A 59346-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 59346-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 59346-2019.png", "A 59346-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 59346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 59346-2019.docx", "A 59346-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 59346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 59346-2019.docx", "A 59346-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 59346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 59346-2019.docx", "A 59346-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 59346-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 59346-2019.docx", "A 59346-2019")</f>
         <v/>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,27 +1984,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 12592-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 12592-2020.xlsx", "A 12592-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 12592-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 12592-2020.png", "A 12592-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 12592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 12592-2020.docx", "A 12592-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 12592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 12592-2020.docx", "A 12592-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 12592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 12592-2020.docx", "A 12592-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 12592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 12592-2020.docx", "A 12592-2020")</f>
         <v/>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,27 +2074,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 33393-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 33393-2020.xlsx", "A 33393-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 33393-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 33393-2020.png", "A 33393-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 33393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 33393-2020.docx", "A 33393-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 33393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 33393-2020.docx", "A 33393-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 33393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 33393-2020.docx", "A 33393-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 33393-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 33393-2020.docx", "A 33393-2020")</f>
         <v/>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2159,27 +2159,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 38226-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 38226-2020.xlsx", "A 38226-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 38226-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 38226-2020.png", "A 38226-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 38226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 38226-2020.docx", "A 38226-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 38226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 38226-2020.docx", "A 38226-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 38226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 38226-2020.docx", "A 38226-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 38226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 38226-2020.docx", "A 38226-2020")</f>
         <v/>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,27 +2249,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 22099-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 22099-2021.xlsx", "A 22099-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 22099-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 22099-2021.png", "A 22099-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 22099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 22099-2021.docx", "A 22099-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 22099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 22099-2021.docx", "A 22099-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 22099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 22099-2021.docx", "A 22099-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 22099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 22099-2021.docx", "A 22099-2021")</f>
         <v/>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,27 +2339,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 42073-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 42073-2021.xlsx", "A 42073-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 42073-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 42073-2021.png", "A 42073-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 42073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 42073-2021.docx", "A 42073-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 42073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 42073-2021.docx", "A 42073-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 42073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 42073-2021.docx", "A 42073-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 42073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 42073-2021.docx", "A 42073-2021")</f>
         <v/>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,27 +2429,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 60242-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 60242-2021.xlsx", "A 60242-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 60242-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 60242-2021.png", "A 60242-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 60242-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 60242-2021.docx", "A 60242-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 60242-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 60242-2021.docx", "A 60242-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 60242-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 60242-2021.docx", "A 60242-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 60242-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 60242-2021.docx", "A 60242-2021")</f>
         <v/>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,27 +2519,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 56915-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 56915-2022.xlsx", "A 56915-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 56915-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 56915-2022.png", "A 56915-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 56915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 56915-2022.docx", "A 56915-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 56915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 56915-2022.docx", "A 56915-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 56915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 56915-2022.docx", "A 56915-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 56915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 56915-2022.docx", "A 56915-2022")</f>
         <v/>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,27 +2609,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 14171-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 14171-2023.xlsx", "A 14171-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 14171-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 14171-2023.png", "A 14171-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 14171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 14171-2023.docx", "A 14171-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 14171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 14171-2023.docx", "A 14171-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 14171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 14171-2023.docx", "A 14171-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 14171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 14171-2023.docx", "A 14171-2023")</f>
         <v/>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,27 +2699,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 18648-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 18648-2023.xlsx", "A 18648-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 18648-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 18648-2023.png", "A 18648-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 18648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 18648-2023.docx", "A 18648-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 18648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 18648-2023.docx", "A 18648-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 18648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 18648-2023.docx", "A 18648-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 18648-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 18648-2023.docx", "A 18648-2023")</f>
         <v/>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2789,27 +2789,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 38712-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/artfynd/A 38712-2023.xlsx", "A 38712-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 38712-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/kartor/A 38712-2023.png", "A 38712-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 38712-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 38712-2023.docx", "A 38712-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 38712-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 38712-2023.docx", "A 38712-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 38712-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 38712-2023.docx", "A 38712-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 38712-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 38712-2023.docx", "A 38712-2023")</f>
         <v/>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,23 +13353,23 @@
       </c>
       <c r="R201" s="2" t="inlineStr"/>
       <c r="U201">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/knärot/A 60134-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/knärot/A 60134-2020.png", "A 60134-2020")</f>
         <v/>
       </c>
       <c r="V201">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 60134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomål/A 60134-2020.docx", "A 60134-2020")</f>
         <v/>
       </c>
       <c r="W201">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 60134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/klagomålsmail/A 60134-2020.docx", "A 60134-2020")</f>
         <v/>
       </c>
       <c r="X201">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 60134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsyn/A 60134-2020.docx", "A 60134-2020")</f>
         <v/>
       </c>
       <c r="Y201">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 60134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKINNSKATTEBERG/tillsynsmail/A 60134-2020.docx", "A 60134-2020")</f>
         <v/>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>45182</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>45182</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>45182</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>45182</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y349"/>
+  <dimension ref="A1:Y350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43764</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44515</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43619</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43740</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43740</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>43740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43332</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43339</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43347</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>43349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43367</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43373</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43374</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43419</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43502</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43529</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43571</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43584</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43599</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43600</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43606</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43608</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43614</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>43629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43642</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43644</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43647</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43648</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43683</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43696</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43698</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43699</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43707</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43719</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43721</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>43724</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43731</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43732</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43738</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43746</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43752</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43780</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43781</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43790</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43794</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43796</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43812</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43847</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43853</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43859</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43871</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43873</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43882</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43888</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43982</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44012</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44017</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44029</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44034</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44046</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44066</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44067</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>44073</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>44075</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44083</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44094</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44096</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44098</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44100</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44101</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44104</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44130</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44141</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>44145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44152</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44154</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44160</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44168</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44179</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44180</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44200</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44236</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44267</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44268</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44278</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>44286</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44293</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44298</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>44308</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44342</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>44343</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>44355</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>44383</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>44410</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44421</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>44426</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44446</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>44462</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44466</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>44468</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44491</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44515</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44531</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44545</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44588</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44603</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44674</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44712</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44713</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44728</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44732</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44735</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44774</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44785</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44789</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>44818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>44827</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44829</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44851</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44859</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44862</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44867</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44879</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44883</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44890</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44908</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44937</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44965</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44967</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44974</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44993</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44995</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45009</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45013</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45033</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45035</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45040</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45043</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45058</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>45063</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45078</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45079</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45088</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45090</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45105</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45114</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45128</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45154</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>45163</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45169</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
       </c>
       <c r="R348" s="2" t="inlineStr"/>
     </row>
-    <row r="349">
+    <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
           <t>A 42976-2023</t>
@@ -22177,7 +22177,7 @@
         <v>45182</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22228,6 +22228,68 @@
         <v>0</v>
       </c>
       <c r="R349" s="2" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>A 44906-2023</t>
+        </is>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>SKINNSKATTEBERG</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>43764</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44515</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45193</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>43347</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43373</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43374</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43529</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43599</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43600</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43602</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43606</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43612</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43614</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43642</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43644</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43647</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43648</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43651</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43683</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43696</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43698</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43699</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43719</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43721</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43724</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43731</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43732</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43739</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43746</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43749</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43752</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43756</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43780</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43781</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43782</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43783</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43796</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>43818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43847</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43866</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43871</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43882</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43888</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43965</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43982</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43983</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43986</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44004</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44014</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44017</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44022</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44029</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44034</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44046</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44066</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44067</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44073</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44075</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44083</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44094</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44098</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44100</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44101</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44103</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44104</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44109</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44130</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44141</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44154</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44165</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44168</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44173</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44204</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44230</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44267</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>44268</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44278</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44286</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44293</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44298</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44342</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44383</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44410</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44421</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44426</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>44445</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44446</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44462</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44466</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44468</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44475</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44489</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44491</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44503</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44515</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44531</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44544</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44545</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44588</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44603</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44623</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44674</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44712</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44732</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44735</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44774</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44785</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44789</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44803</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44818</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44827</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44829</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44834</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44862</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44867</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44879</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44883</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44887</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44890</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44937</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>44964</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>44965</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44967</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44995</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45009</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45013</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45033</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45035</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45040</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45043</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45056</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45058</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>45078</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45079</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45088</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45099</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45103</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45105</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45114</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45128</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45154</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45163</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45169</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45182</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45190</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45194</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45195</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>43764</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44515</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45193</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>43347</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43373</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43374</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43529</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43599</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43600</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43602</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43606</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43612</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43614</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43642</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43644</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43647</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43648</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43651</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43683</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43696</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43698</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43699</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43719</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43721</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43724</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43731</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43732</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43739</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43746</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43749</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43752</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43756</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43780</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43781</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43782</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43783</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43796</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>43818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43847</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43866</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43871</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43882</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43888</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43965</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43982</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43983</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43986</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44004</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44014</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44017</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44022</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44029</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44034</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44046</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44066</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44067</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44073</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44075</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44083</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44094</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44098</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44100</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44101</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44103</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44104</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44109</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44130</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44141</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44154</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44165</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44168</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44173</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44204</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44230</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44267</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>44268</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44278</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44286</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44293</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44298</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44342</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44383</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44410</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44421</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44426</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>44445</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44446</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44462</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44466</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44468</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44475</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44489</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44491</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44503</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44515</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44531</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44544</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44545</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44588</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44603</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44623</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44674</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44712</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44732</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44735</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44774</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44785</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44789</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44803</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44818</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44827</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44829</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44834</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44862</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44867</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44879</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44883</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44887</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44890</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44937</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>44964</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>44965</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44967</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44995</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45009</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45013</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45033</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45035</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45040</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45043</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45056</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45058</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>45078</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45079</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45088</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45099</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45103</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45105</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45114</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45128</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45154</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45163</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45169</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45182</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45190</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45194</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45195</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43740</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45079</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43719</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>43764</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44515</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44964</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43430</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43619</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43740</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>43899</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44022</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44060</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44894</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45009</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45043</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45193</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43339</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>43341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>43347</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43373</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43374</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43374</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43430</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43502</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43529</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43584</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>43593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>43599</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43600</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43602</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43602</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43602</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>43602</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43606</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43612</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43612</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43614</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43642</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43642</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>43642</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>43644</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43647</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43648</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43648</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43651</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43683</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43683</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43696</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43696</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43698</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43699</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43707</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43719</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43719</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43721</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43724</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43724</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43731</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43732</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>43739</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>43740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43746</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43749</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43752</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43756</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43780</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43780</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43781</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43782</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43782</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43782</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43783</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43796</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43796</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43805</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43805</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43805</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>43818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43847</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43859</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43859</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43859</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43866</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43866</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43871</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43882</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43888</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43965</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43982</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43983</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43986</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44004</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44014</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44017</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44022</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44029</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44034</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44046</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44066</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44066</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44066</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44066</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44067</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44073</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44073</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44075</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>44083</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>44094</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>44094</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44094</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44094</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44096</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44098</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44098</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>44098</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44098</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44098</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44100</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44101</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44103</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44104</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44104</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44104</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>44104</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>44104</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44109</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44130</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44141</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>44154</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44165</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44168</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44173</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44179</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44200</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44204</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44230</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44230</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44267</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44267</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>44268</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44278</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44286</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44293</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44298</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44308</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44308</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44308</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44342</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44383</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44410</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44410</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44410</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44421</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44421</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44421</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44426</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>44445</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44446</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44462</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44466</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44468</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44475</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44489</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44491</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>44503</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44515</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44531</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44544</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44545</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44545</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44545</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44545</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44588</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>44603</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44603</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44623</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44674</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44712</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>44728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>44732</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44735</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44774</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44785</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44785</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44789</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44803</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44803</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44818</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44827</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44829</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44834</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44851</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44859</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44862</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44867</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44879</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44883</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44887</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44890</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44908</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44937</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>44964</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>44965</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44967</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44974</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44993</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44995</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44995</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44995</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45009</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45013</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45033</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45033</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45035</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>45035</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45035</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45040</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45043</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45056</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45058</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45058</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>45078</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>45079</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45079</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45088</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45090</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45099</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45103</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45105</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45114</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45114</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45114</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45114</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45128</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45154</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45163</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>45163</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45169</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45169</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45182</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45190</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45194</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45195</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
